--- a/Fast_Nuces_Data_Scrapper/Final_Bot/FAST_NUCES_Teachers_Data.xlsx
+++ b/Fast_Nuces_Data_Scrapper/Final_Bot/FAST_NUCES_Teachers_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\FAST NUCES Scrapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Fast_Nuces_Data_Scrapper\Final_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F7F6B7-58E6-4F2D-BD74-6C786853F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1273A0-266F-4997-B225-CEE87B0FD7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAST_NUCES_Teachers_Data" sheetId="1" r:id="rId1"/>
@@ -1449,40 +1449,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1507,6 +1473,40 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1593,11 +1593,14 @@
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
+    <sortCondition ref="A1:A82"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Email" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Position" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Profile" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Email" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Position" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Profile" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1902,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,1136 +1930,1136 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
